--- a/work1/task1.xlsx
+++ b/work1/task1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor.Grivtsov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4244C8-D2B4-44BA-B63C-22CCE8256487}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E364DB87-7D2D-44BE-A65A-A618CFD3C509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="C1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,8 +479,8 @@
         <v>1.5</v>
       </c>
       <c r="G3">
-        <f>SQRT($D$3^2+$E$3) - $E$3^2 * SIN($D$3+$F$3/$D$3)^3</f>
-        <v>4.5942440370793314E-2</v>
+        <f>SQRT($D$3^2+$E$3) - $E$3^2 * SIN(($D$3+$F$3)/$D$3)^3</f>
+        <v>-19.145373790144959</v>
       </c>
       <c r="H3">
         <f>COS($D$3^3)^2 - $D$3/ (SQRT($F$3^2)+ ($E$3^2))</f>
